--- a/UserResponses.xlsx
+++ b/UserResponses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heena\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heena\Desktop\TicketExperimentalDataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -822,7 +822,7 @@
   <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1048576"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1024,7 @@
       <c r="L6" s="1">
         <v>7</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="20" t="s">
         <v>129</v>
       </c>
       <c r="P6">
